--- a/GRAPH.xlsx
+++ b/GRAPH.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3719E63E-F5C4-4D65-8791-B28266A92A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -42,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,20 +81,73 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -108,11 +162,65 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -173,8 +281,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B8E-4EFD-9F84-5606E3BE5085}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="113199360"/>
         <c:axId val="113217536"/>
       </c:lineChart>
@@ -183,36 +305,696 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="113217536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="113217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="113199360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -232,7 +1014,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -293,7 +1081,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,9 +1113,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,6 +1165,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,19 +1358,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -569,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -603,12 +1427,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -616,12 +1440,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
